--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F810F-1E39-483A-BE91-BB8255AF0F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B26C7F-BE1A-4BD9-AF05-DC2DDDC3C362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2730,10 +2730,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</t>
+    <t>S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09</t>
+  </si>
+  <si>
+    <t>S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</v>
+        <v>S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</v>
+        <v>S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A159FF54-BA43-4185-AB05-329B26107A51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900D23ED-FAF6-4805-91D0-935ECF4CD2DD}">
   <dimension ref="B2:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7168,7 +7168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2BEE1B-EE7C-47F8-9E63-54B2342E0D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44CC5E3-6A2E-47D7-B28D-9A26C82188CE}">
   <dimension ref="B2:O414"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7247,10 +7247,10 @@
         <v>892</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>903</v>
@@ -7282,10 +7282,10 @@
         <v>892</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.85512494215640922</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>903</v>
@@ -7317,10 +7317,10 @@
         <v>892</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O6" t="s">
         <v>903</v>
@@ -17940,7 +17940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5D9173-6831-4293-BEA2-0CD349725C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457540E0-0B03-464F-BA17-E0380B500F9E}">
   <dimension ref="B2:O825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21BDFBD-4886-408D-893A-3433E246A4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED177C8E-A640-47B8-A4F6-2B3086A0DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2730,10 +2730,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4</t>
-  </si>
-  <si>
-    <t>S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9</t>
+    <t>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9</v>
+        <v>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4</v>
+        <v>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E41DC-0602-462F-B63C-9FE3A5076FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD740DB-174E-464B-B73E-69C632F2E378}">
   <dimension ref="B2:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7168,7 +7168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCB75E2-EE27-4477-88B6-DD4949536AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A46EE-6592-45E2-A025-38ADC401B275}">
   <dimension ref="B2:O414"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7247,10 +7247,10 @@
         <v>892</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>903</v>
@@ -7282,10 +7282,10 @@
         <v>892</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.855124942156409</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>903</v>
@@ -7317,10 +7317,10 @@
         <v>892</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O6" t="s">
         <v>903</v>
@@ -17940,7 +17940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B13542-F95E-4172-BF21-68013B0B5AD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A8167A-0DB6-44A8-8494-AA06E3E7FB09}">
   <dimension ref="B2:O825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED177C8E-A640-47B8-A4F6-2B3086A0DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD5FE2-0D86-433C-B123-A7E89A482C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2730,10 +2730,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21</t>
+    <t>S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12</t>
+  </si>
+  <si>
+    <t>S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21</v>
+        <v>S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3</v>
+        <v>S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD740DB-174E-464B-B73E-69C632F2E378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD410B10-B7C7-4284-9343-986D5A495C26}">
   <dimension ref="B2:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7168,7 +7168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A46EE-6592-45E2-A025-38ADC401B275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7E72B-AB0B-4604-BAF1-5EEBA0A0E614}">
   <dimension ref="B2:O414"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7247,10 +7247,10 @@
         <v>892</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O4" t="s">
         <v>903</v>
@@ -7282,10 +7282,10 @@
         <v>892</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.18220731142989358</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O5" t="s">
         <v>903</v>
@@ -17940,7 +17940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A8167A-0DB6-44A8-8494-AA06E3E7FB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2607D644-8049-40FE-936B-06C7616636B1}">
   <dimension ref="B2:O825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD5FE2-0D86-433C-B123-A7E89A482C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB223A-0963-403C-B486-69AEF683FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2730,10 +2730,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12</t>
-  </si>
-  <si>
-    <t>S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05</t>
+    <t>S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</t>
+  </si>
+  <si>
+    <t>S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05</v>
+        <v>S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12</v>
+        <v>S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD410B10-B7C7-4284-9343-986D5A495C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FCA14C-84AB-4AF9-AE71-E5DDB47D6415}">
   <dimension ref="B2:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7168,7 +7168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7E72B-AB0B-4604-BAF1-5EEBA0A0E614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA2889-9308-4C84-9EFA-B49D59696590}">
   <dimension ref="B2:O414"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7282,10 +7282,10 @@
         <v>892</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O5" t="s">
         <v>903</v>
@@ -7317,10 +7317,10 @@
         <v>892</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.855124942156409</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>903</v>
@@ -17940,7 +17940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2607D644-8049-40FE-936B-06C7616636B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588EEB8C-63B8-4250-8AD2-7502832BBF45}">
   <dimension ref="B2:O825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB223A-0963-403C-B486-69AEF683FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D344C06-7000-4947-A6F1-315339A2B14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2730,10 +2730,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</t>
-  </si>
-  <si>
-    <t>S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</t>
+    <t>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</v>
+        <v>S1b0202h03,S1b0202h22,S2aH1,S2aH9,S2d1009h05,S2d1010h03,S2d1011h06,S2d1013h03,S2d1013h19,S2d1013h20,S2e1026h06,S3aH7,S2d1008h24,S2d1009h21,S2d1009h24,S2d1012h05,S2d1012h20,S2d1013h23,S2e1022h21,S2e1023h03,S2e1025h21,S2e1025h24,S1c0321h02,S2d1008h05,S2d1008h20,S2d1010h01,S2d1014h04,S2e1022h06,S2e1023h01,S2e1024h05,S2e1024h20,S2e1024h21,S2e1025h02,S2e1027h04,S2e1028h06,S2e1028h20,S2e1028h22,S1b0202h04,S2d1008h01,S2d1008h02,S2d1008h03,S2d1008h04,S2d1010h05,S2d1012h19,S2d1012h22,S2d1013h22,S2d1013h24,S2e1022h01,S2e1024h04,S2e1025h01,S2e1026h21,S2e1027h05,S2e1027h23,S1c0321h23,S2d1008h22,S2d1010h02,S2d1010h06,S2d1010h24,S2d1011h24,S2d1012h23,S2d1013h05,S2d1014h06,S2e1023h20,S2e1025h23,S2e1028h02,S2e1028h03,S2e1028h23,S3aH9,S1b0202h24,S2d1009h01,S2d1009h02,S2d1011h05,S2d1011h21,S2d1014h22,S2e1022h04,S2e1022h22,S2e1025h05,S2e1026h01,S2e1026h02,S2e1026h22,S3aH8,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2d1009h22,S2d1010h20,S2d1013h02,S2d1014h03,S2e1023h04,S2e1023h21,S2e1023h24,S2e1024h03,S2e1024h06,S2e1024h23,S2e1027h22,S1aH9,S1c0321h05,S2d1010h19,S2d1010h23,S2d1012h24,S2d1013h21,S2d1014h02,S2e1022h02,S2e1022h05,S2e1023h23,S2e1024h24,S2e1025h19,S2d1008h06,S2d1010h04,S2d1011h01,S2d1011h20,S2d1012h21,S2d1013h01,S2e1022h19,S2e1025h22,S2e1027h19,S1c0321h24,S2d1009h19,S2d1010h22,S2d1014h05,S1aH8,S1c0321h20,S1c0321h21,S2d1009h03,S2d1009h23,S2d1011h03,S2d1012h02,S2d1012h03,S2d1012h04,S2d1014h23,S2e1022h20,S2e1023h02,S2e1023h22,S2e1025h20,S2e1026h03,S2e1026h04,S2e1026h19,S2e1028h01,S2e1028h04,S1b0202h01,S1c0321h19,S2d1011h04,S2d1011h22,S2d1012h01,S2e1026h23,S2e1027h06,S2e1028h05,S2e1028h21,S1b0202h02,S1b0202h21,S1c0321h03,S1c0321h06,S2aH8,S2d1008h23,S2d1009h06,S2d1010h21,S2d1011h02,S2d1011h19,S2d1014h01,S2d1014h20,S2e1022h03,S2e1022h24,S2e1023h05,S2e1024h01,S2e1024h02,S2e1025h06,S2e1027h21,S2e1027h24,S1aH7,S1c0321h22,S2d1008h21,S2d1014h19,S2d1014h21,S2d1014h24,S2e1023h06,S2e1025h04,S2e1027h01,S2e1027h02,S2e1027h03,S2e1027h20,S2e1028h19,S2e1028h24,S1b0202h05,S1b0202h06,S1c0321h01,S1c0321h04,S2d1008h19,S2d1009h04,S2d1012h06,S2e1024h19,S2e1026h05,S1b0202h19,S2d1009h20,S2d1011h23,S2d1013h04,S2d1013h06,S2e1022h23,S2e1023h19,S2e1024h22,S2e1025h03,S2e1026h20,S2e1026h24,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</v>
+        <v>S1c0321h13,S2d1010h07,S2d1010h11,S2d1010h14,S2d1012h09,S2d1012h17,S2e1023h11,S2e1023h13,S2e1024h13,S2e1025h17,S1aH6,S2d1008h17,S2d1009h10,S2d1014h15,S2e1022h11,S2e1022h12,S2e1025h12,S2e1026h08,S2e1027h18,S2e1028h10,S2e1028h17,S1aH2,S1b0202h17,S2aH3,S2d1008h13,S2d1009h14,S2d1011h10,S2d1011h12,S2d1011h14,S2d1013h08,S2d1014h08,S2e1022h08,S2e1024h11,S2e1024h14,S2e1027h15,S3aH6,S1b0202h09,S1c0321h11,S2d1009h08,S2d1010h09,S2d1011h13,S2d1012h13,S2e1025h10,S1b0202h10,S1b0202h18,S2d1008h07,S2d1009h13,S2d1010h15,S2d1011h16,S2e1022h15,S2e1024h15,S2e1026h15,S2e1027h09,S2e1027h16,S3aH4,S1b0202h08,S1b0202h11,S1c0321h16,S2d1008h18,S2d1009h12,S2d1010h12,S2d1010h17,S2d1011h08,S2d1013h12,S2d1014h13,S2d1014h18,S2e1023h10,S2e1023h18,S2e1025h09,S2e1026h07,S2e1027h13,S3aH2,S2d1008h16,S2d1009h17,S2d1011h09,S2d1012h07,S2d1012h12,S2d1012h14,S2d1012h16,S2d1014h10,S2d1014h17,S2e1024h09,S2e1026h16,S2e1027h10,S1aH4,S1b0202h12,S2aH2,S2d1008h10,S2d1012h18,S2d1013h17,S2d1013h18,S2d1014h11,S2e1022h10,S2e1022h13,S2e1023h07,S2e1025h13,S2e1027h07,S2e1028h09,S1b0202h13,S1b0202h16,S2d1010h18,S2d1011h07,S2d1012h10,S2d1014h14,S2e1024h17,S2e1025h07,S2e1025h18,S2e1026h10,S2e1026h18,S2e1028h08,S2e1028h15,S1c0321h12,S2d1008h08,S2d1009h11,S2d1011h17,S2d1012h11,S2d1014h07,S2e1022h16,S2e1023h16,S2e1024h08,S2e1025h11,S2e1028h12,S1b0202h14,S1c0321h14,S1c0321h17,S2aH6,S2d1008h09,S2d1008h12,S2d1009h09,S2d1009h16,S2d1010h16,S2e1023h14,S2e1027h11,S2e1027h14,S2e1027h17,S2e1028h07,S3aH5,S1b0202h15,S1c0321h07,S1c0321h18,S2d1008h11,S2d1010h08,S2d1011h15,S2d1013h13,S2d1014h12,S2e1023h17,S2e1025h15,S2e1026h14,S2e1028h14,S3aH3,S1c0321h08,S2d1008h14,S2d1010h10,S2d1011h18,S2e1022h07,S2e1022h14,S2e1023h08,S2e1025h08,S2e1025h14,S2e1026h13,S1aH3,S2d1008h15,S2d1009h07,S2d1009h18,S2d1013h11,S2d1014h09,S2e1022h09,S2e1023h09,S2e1024h07,S2e1024h10,S2e1026h11,S2e1026h17,S2e1028h16,S2e1028h18,S1aH5,S1b0202h07,S1c0321h15,S2aH4,S2aH5,S2d1012h15,S2d1013h09,S2d1013h14,S2e1022h17,S2e1023h12,S2e1023h15,S2e1024h12,S2e1024h16,S2e1024h18,S2e1026h12,S2e1028h11,S2e1028h13,S1c0321h09,S1c0321h10,S2d1009h15,S2d1010h13,S2d1011h11,S2d1012h08,S2d1013h07,S2d1013h10,S2d1013h15,S2d1013h16,S2d1014h16,S2e1022h18,S2e1025h16,S2e1026h09,S2e1027h08,S2e1027h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FCA14C-84AB-4AF9-AE71-E5DDB47D6415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C99D90A-8BE7-4376-A758-6A935EF2E71B}">
   <dimension ref="B2:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7168,7 +7168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA2889-9308-4C84-9EFA-B49D59696590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655599D0-C3C7-4563-BB27-39BD8F790FE8}">
   <dimension ref="B2:O414"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7247,10 +7247,10 @@
         <v>892</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>903</v>
@@ -7317,10 +7317,10 @@
         <v>892</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O6" t="s">
         <v>903</v>
@@ -17940,7 +17940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588EEB8C-63B8-4250-8AD2-7502832BBF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B78751-E5A7-4D4B-9FAC-BDFCEF07AD2B}">
   <dimension ref="B2:O825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC018C4D-B033-4CF7-A345-A10576247988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCC8E2A-6E66-40DA-B972-0A10DD05E807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2736,10 +2736,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21</t>
+    <t>S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE5E05F-6E4C-C0FF-C794-E64B79197DE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B148F53B-DC13-56CD-D426-56BF6C474335}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3111,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12E3E30-30FA-5D94-7827-ED29EABB50C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF95EA3D-E4CF-1610-98A2-09221A6BEF98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3166,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2257813A-9CA1-3CC6-E2E6-8C36267821A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0C1B59-D910-2265-1C6F-FCA7D25E81A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21</v>
+        <v>S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18</v>
+        <v>S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -4219,7 +4219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F53FB41-3D15-416D-BB43-154DA4F73108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243C84A2-586F-4222-8EAD-0CD34C973B26}">
   <dimension ref="A1:H403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8624,7 +8624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC39CA2-B21D-43A9-A7BB-89062895E504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91F7D71-1618-4E1D-810D-0FEF5FC3BF3E}">
   <dimension ref="A1:S421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8753,10 +8753,10 @@
         <v>482</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R11" s="24">
-        <v>8.4821841739935219E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>906</v>
@@ -8800,10 +8800,10 @@
         <v>482</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R12" s="26">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>906</v>
@@ -24370,7 +24370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2956F5EA-1093-42EE-8F64-9272B19688C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA39A89-E166-4164-AD9D-D88BCDBCBDE3}">
   <dimension ref="A1:M832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A40A91-CD77-4E24-9599-41FE586420E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F767D6E-5263-40FF-9DC7-014C2E38D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2733,10 +2733,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18</t>
-  </si>
-  <si>
-    <t>S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21</t>
+    <t>S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14</t>
+  </si>
+  <si>
+    <t>S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21</v>
+        <v>S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18</v>
+        <v>S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3953,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4455CF43-BC3F-4CE1-A9DE-C7E35CCA049D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9AA06D-6B9F-40A8-AB0F-E4EAD5BFB01B}">
   <dimension ref="B9:F403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7171,7 +7171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2068DE-98A8-442A-8D1A-5A880336E4B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D211E49E-45D4-4904-AFE9-B288CA215191}">
   <dimension ref="B9:S421"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7277,10 +7277,10 @@
         <v>481</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R11">
-        <v>8.4821841739935219E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S11" t="s">
         <v>905</v>
@@ -7327,7 +7327,7 @@
         <v>76</v>
       </c>
       <c r="R12">
-        <v>1.0373322535863028</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="S12" t="s">
         <v>905</v>
@@ -7371,10 +7371,10 @@
         <v>481</v>
       </c>
       <c r="Q13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R13">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S13" t="s">
         <v>905</v>
@@ -22890,7 +22890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE16DD6-9076-40D3-AA01-A27A513EB8A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFE7811-3BB6-4768-8AB1-CC6B011E0F25}">
   <dimension ref="B9:M832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2129DB-7C60-4616-B3E1-0EC5C690ED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA2CE9C-6CC1-41F3-949B-8245101BB097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2586,13 +2586,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18</t>
+    <t>S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21</t>
+    <t>S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21</v>
+        <v>S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18</v>
+        <v>S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3243,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235E18A-B6F4-4850-A993-B9029EB1B852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA896C4-82C0-4492-83C9-0127189B553A}">
   <dimension ref="A9:AM832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3466,10 +3466,10 @@
         <v>0.37968808131950493</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL11">
-        <v>1.0373322535863025</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>856</v>
@@ -3561,7 +3561,7 @@
         <v>27</v>
       </c>
       <c r="AL12">
-        <v>8.4821841739935205E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>856</v>
@@ -3650,10 +3650,10 @@
         <v>0.16118329856368607</v>
       </c>
       <c r="AK13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>7.7845904673762137E-2</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM13" t="s">
         <v>856</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A09348-93E6-45FE-B659-DEFB2D5099FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4921553A-6E13-4159-BF0C-F85F400AE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2586,13 +2586,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10</t>
+    <t>S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20</t>
+    <t>S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20</v>
+        <v>S1b0202h03,S1b0202h22,S1c0331h03,S1c0331h20,S1d1024h02,S1d1024h06,S1d1026h24,S1d1027h06,S1d1028h01,S2aH1,S2aH9,S3e1217h01,S3e1217h22,S3e1220h05,S3e1220h20,S3e1220h24,S3e1223h23,S1c0331h19,S1d1022h05,S1d1024h20,S1d1025h23,S1d1026h04,S1d1027h23,S1d1028h03,S3e1219h04,S3e1219h24,S3e1221h01,S3e1221h04,S3e1221h21,S3e1221h24,S3e1223h01,S3e1223h02,S1b0202h24,S1c0331h04,S1c0331h21,S1d1022h02,S1d1023h05,S1d1023h23,S1d1024h21,S1d1025h03,S1d1028h23,S3aH8,S3e1218h04,S3e1221h03,S3e1222h22,S1b0202h19,S1c0331h06,S1c0331h22,S1d1024h19,S1d1025h04,S1d1025h05,S1d1026h01,S1d1027h21,S1d1028h05,S1d1028h06,S3aH1,S3e1220h06,S3e1222h02,S3e1222h05,S3e1223h21,S1aH9,S1d1022h22,S1d1025h06,S1d1025h22,S1d1026h05,S1d1027h22,S1d1028h19,S3e1217h04,S3e1219h03,S3e1219h22,S3e1221h19,S3e1221h20,S1aH8,S1c0331h05,S1d1022h06,S1d1023h06,S1d1025h24,S1d1026h06,S1d1027h03,S1d1028h21,S3e1219h19,S3e1222h01,S3e1222h20,S1d1022h04,S1d1022h23,S1d1023h21,S1d1023h22,S1d1025h19,S1d1026h20,S1d1026h22,S3e1218h23,S3e1219h05,S3e1223h05,S1c0331h24,S1d1025h21,S1d1028h02,S1d1028h04,S3e1217h03,S3e1218h02,S3e1218h03,S3e1221h02,S3e1221h06,S1b0202h05,S1b0202h06,S1d1022h03,S1d1023h24,S1d1024h03,S1d1024h23,S1d1026h02,S1d1027h20,S3e1218h21,S3e1220h21,S3e1222h19,S1b0202h04,S1d1022h24,S1d1023h19,S3e1217h20,S3e1217h23,S3e1218h01,S3e1218h05,S3e1218h06,S3e1222h03,S3e1223h03,S3e1223h04,S3e1223h06,S1d1023h03,S1d1026h03,S1d1027h01,S1d1027h04,S3aH9,S3e1217h21,S3e1221h23,S3e1222h24,S3e1223h20,S1c0331h02,S1c0331h23,S1d1023h01,S1d1025h20,S1d1027h02,S1d1027h19,S3e1217h06,S3e1219h01,S3e1219h02,S3e1220h03,S3e1220h04,S3e1220h19,S3e1220h23,S3e1222h23,S3e1223h24,S1b0202h01,S1d1022h01,S1d1024h05,S1d1024h22,S1d1028h20,S1d1028h24,S3e1217h24,S3e1219h06,S3e1223h19,S3e1223h22,S1b0202h02,S1b0202h21,S1d1022h19,S1d1023h02,S1d1024h04,S1d1025h01,S1d1025h02,S1d1027h24,S1d1028h22,S2aH8,S3e1218h19,S3e1218h22,S3e1219h20,S3e1219h21,S1d1022h20,S1d1026h19,S1d1027h05,S3e1217h02,S3e1217h05,S3e1217h19,S3e1218h20,S3e1220h02,S3e1220h22,S3e1221h05,S3e1222h21,S1aH1,S1b0202h20,S1b0202h23,S1c0331h01,S1d1022h21,S1d1023h04,S1d1023h20,S1d1024h01,S1d1024h24,S1d1026h21,S1d1026h23,S3e1218h24,S3e1219h23,S3e1220h01,S3e1221h22,S3e1222h04,S3e1222h06</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10</v>
+        <v>S1d1022h09,S1d1025h08,S1d1025h16,S1d1026h16,S1d1028h12,S1d1028h15,S3e1218h08,S3e1220h17,S3e1221h10,S3e1222h16,S1b0202h13,S1b0202h16,S1d1022h11,S1d1022h12,S1d1026h11,S1d1027h10,S1d1027h13,S1d1028h08,S1d1028h18,S3e1217h15,S3e1217h17,S3e1219h11,S3e1219h16,S3e1220h07,S3e1220h10,S3e1220h11,S3e1220h14,S3e1221h18,S1b0202h08,S1b0202h11,S1d1022h17,S1d1027h16,S3aH2,S3e1217h11,S3e1217h12,S3e1218h09,S3e1219h12,S3e1222h07,S3e1223h16,S1c0331h08,S1d1022h18,S1d1023h15,S1d1024h08,S1d1025h12,S1d1027h15,S3e1217h08,S3e1217h10,S3e1218h11,S3e1218h13,S3e1219h10,S3e1222h08,S3e1222h18,S1aH4,S1b0202h12,S1c0331h07,S1d1023h10,S2aH2,S3e1219h13,S1b0202h14,S1c0331h09,S1c0331h11,S1d1022h16,S1d1024h16,S1d1028h16,S2aH6,S3aH5,S3e1217h09,S3e1219h17,S3e1222h11,S3e1222h17,S3e1223h10,S1c0331h16,S1c0331h18,S1d1023h17,S1d1023h18,S1d1024h15,S1d1027h08,S1d1027h12,S1d1027h14,S1d1028h14,S3e1218h07,S3e1220h13,S3e1221h09,S3e1221h12,S3e1223h11,S1aH6,S1d1024h14,S3e1218h17,S3e1219h07,S3e1219h08,S3e1221h07,S3e1223h07,S3e1223h12,S3e1223h17,S1aH5,S1b0202h07,S1d1023h07,S1d1023h13,S1d1024h07,S1d1024h13,S2aH4,S2aH5,S3e1218h14,S3e1221h14,S3e1221h16,S3e1223h18,S1b0202h09,S1c0331h17,S1d1022h07,S1d1022h14,S1d1024h10,S1d1024h18,S1d1025h18,S1d1026h07,S1d1026h15,S1d1028h10,S3e1217h18,S3e1218h10,S3e1218h15,S3e1219h14,S3e1220h08,S3e1221h08,S3e1221h11,S3e1221h15,S3e1221h17,S3e1222h12,S3e1222h15,S3e1223h08,S1b0202h10,S1b0202h18,S1c0331h14,S1d1022h10,S1d1024h11,S1d1025h11,S1d1026h17,S1d1026h18,S1d1027h07,S1d1027h18,S1d1028h09,S2aH7,S3aH4,S3e1217h07,S3e1217h16,S3e1219h09,S3e1220h15,S1aH2,S1aH7,S1b0202h17,S1d1022h15,S1d1025h09,S1d1025h10,S1d1025h17,S1d1026h10,S1d1026h13,S1d1027h09,S1d1027h11,S1d1027h17,S2aH3,S3aH6,S3e1217h14,S3e1218h18,S3e1223h09,S3e1223h15,S1b0202h15,S1c0331h10,S1c0331h12,S1c0331h15,S1d1023h12,S1d1024h12,S1d1026h09,S1d1026h14,S1d1028h11,S3aH3,S3e1217h13,S3e1220h18,S3e1222h14,S1c0331h13,S1d1023h16,S1d1025h14,S1d1025h15,S1d1028h17,S3aH7,S3e1218h16,S3e1220h12,S3e1221h13,S3e1222h09,S3e1222h10,S3e1223h14,S1aH3,S1d1022h13,S1d1023h09,S1d1023h14,S1d1024h09,S1d1026h12,S1d1028h07,S3e1219h18,S3e1220h09,S3e1222h13,S3e1223h13,S1d1022h08,S1d1023h08,S1d1023h11,S1d1024h17,S1d1025h07,S1d1025h13,S1d1026h08,S1d1028h13,S3e1218h12,S3e1219h15,S3e1220h16</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3243,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0144F9-26BA-489A-BC94-1F36EF398777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7266658D-336D-445C-AD01-85FA565F4848}">
   <dimension ref="A9:AM832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3466,10 +3466,10 @@
         <v>0.37968808131950493</v>
       </c>
       <c r="AK11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL11">
-        <v>8.4821841739935219E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>856</v>
@@ -3558,10 +3558,10 @@
         <v>0.17563652492716497</v>
       </c>
       <c r="AK12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL12">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>856</v>
